--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf16-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf16-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +540,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09657300000000001</v>
+        <v>0.1628603333333333</v>
       </c>
       <c r="H2">
-        <v>0.289719</v>
+        <v>0.488581</v>
       </c>
       <c r="I2">
-        <v>0.1488791629603479</v>
+        <v>0.1212602171476209</v>
       </c>
       <c r="J2">
-        <v>0.2078467214814188</v>
+        <v>0.171492704432097</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3341516666666666</v>
+        <v>0.363908</v>
       </c>
       <c r="N2">
-        <v>1.002455</v>
+        <v>1.091724</v>
       </c>
       <c r="O2">
-        <v>0.02354483703663662</v>
+        <v>0.01118972054940699</v>
       </c>
       <c r="P2">
-        <v>0.03467746452042096</v>
+        <v>0.01663265480083782</v>
       </c>
       <c r="Q2">
-        <v>0.032270028905</v>
+        <v>0.05926617818266666</v>
       </c>
       <c r="R2">
-        <v>0.290430260145</v>
+        <v>0.533395603644</v>
       </c>
       <c r="S2">
-        <v>0.00350533563005226</v>
+        <v>0.001356867943642288</v>
       </c>
       <c r="T2">
-        <v>0.007207597309857718</v>
+        <v>0.002852378953681179</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09657300000000001</v>
+        <v>0.1628603333333333</v>
       </c>
       <c r="H3">
-        <v>0.289719</v>
+        <v>0.488581</v>
       </c>
       <c r="I3">
-        <v>0.1488791629603479</v>
+        <v>0.1212602171476209</v>
       </c>
       <c r="J3">
-        <v>0.2078467214814188</v>
+        <v>0.171492704432097</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,25 +623,25 @@
         <v>0.153566</v>
       </c>
       <c r="N3">
-        <v>0.4606979999999999</v>
+        <v>0.460698</v>
       </c>
       <c r="O3">
-        <v>0.01082049501783563</v>
+        <v>0.004721964413781051</v>
       </c>
       <c r="P3">
-        <v>0.01593671391696275</v>
+        <v>0.007018835164781924</v>
       </c>
       <c r="Q3">
-        <v>0.014830329318</v>
+        <v>0.02500980994866667</v>
       </c>
       <c r="R3">
-        <v>0.133472963862</v>
+        <v>0.225088289538</v>
       </c>
       <c r="S3">
-        <v>0.001610946241071984</v>
+        <v>0.0005725864301784288</v>
       </c>
       <c r="T3">
-        <v>0.003312393738828008</v>
+        <v>0.001203679024371555</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +655,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09657300000000001</v>
+        <v>0.1628603333333333</v>
       </c>
       <c r="H4">
-        <v>0.289719</v>
+        <v>0.488581</v>
       </c>
       <c r="I4">
-        <v>0.1488791629603479</v>
+        <v>0.1212602171476209</v>
       </c>
       <c r="J4">
-        <v>0.2078467214814188</v>
+        <v>0.171492704432097</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>13.6684585</v>
+        <v>0.06252866666666666</v>
       </c>
       <c r="N4">
-        <v>27.336917</v>
+        <v>0.187586</v>
       </c>
       <c r="O4">
-        <v>0.9631004721145509</v>
+        <v>0.001922679101110775</v>
       </c>
       <c r="P4">
-        <v>0.9456533902920258</v>
+        <v>0.002857913889838424</v>
       </c>
       <c r="Q4">
-        <v>1.3200040427205</v>
+        <v>0.01018343949622222</v>
       </c>
       <c r="R4">
-        <v>7.920024256323</v>
+        <v>0.09165095546599999</v>
       </c>
       <c r="S4">
-        <v>0.1433855921351303</v>
+        <v>0.0002331444853058853</v>
       </c>
       <c r="T4">
-        <v>0.1965509568299861</v>
+        <v>0.0004901113820024454</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +717,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,51 +726,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.09657300000000001</v>
+        <v>0.1628603333333333</v>
       </c>
       <c r="H5">
-        <v>0.289719</v>
+        <v>0.488581</v>
       </c>
       <c r="I5">
-        <v>0.1488791629603479</v>
+        <v>0.1212602171476209</v>
       </c>
       <c r="J5">
-        <v>0.2078467214814188</v>
+        <v>0.171492704432097</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.03596566666666667</v>
+        <v>31.927516</v>
       </c>
       <c r="N5">
-        <v>0.107897</v>
+        <v>63.85503199999999</v>
       </c>
       <c r="O5">
-        <v>0.002534195830976933</v>
+        <v>0.9817315966582778</v>
       </c>
       <c r="P5">
-        <v>0.003732431270590561</v>
+        <v>0.9728454303033116</v>
       </c>
       <c r="Q5">
-        <v>0.003473312327</v>
+        <v>5.199725898265333</v>
       </c>
       <c r="R5">
-        <v>0.031259810943</v>
+        <v>31.198355389592</v>
       </c>
       <c r="S5">
-        <v>0.0003772889540934492</v>
+        <v>0.1190449865914634</v>
       </c>
       <c r="T5">
-        <v>0.0007757736027469744</v>
+        <v>0.166835893837122</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -776,55 +779,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.5520939999999999</v>
+        <v>0.1628603333333333</v>
       </c>
       <c r="H6">
-        <v>1.104188</v>
+        <v>0.488581</v>
       </c>
       <c r="I6">
-        <v>0.851120837039652</v>
+        <v>0.1212602171476209</v>
       </c>
       <c r="J6">
-        <v>0.7921532785185812</v>
+        <v>0.171492704432097</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.3341516666666666</v>
+        <v>0.01411566666666667</v>
       </c>
       <c r="N6">
-        <v>1.002455</v>
+        <v>0.042347</v>
       </c>
       <c r="O6">
-        <v>0.02354483703663662</v>
+        <v>0.0004340392774233579</v>
       </c>
       <c r="P6">
-        <v>0.03467746452042096</v>
+        <v>0.0006451658412300904</v>
       </c>
       <c r="Q6">
-        <v>0.1844831302566666</v>
+        <v>0.002298882178555556</v>
       </c>
       <c r="R6">
-        <v>1.10689878154</v>
+        <v>0.020689939607</v>
       </c>
       <c r="S6">
-        <v>0.02003950140658436</v>
+        <v>5.263169703095287E-05</v>
       </c>
       <c r="T6">
-        <v>0.02746986721056324</v>
+        <v>0.0001106412349197571</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +841,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -847,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5520939999999999</v>
+        <v>1.1802045</v>
       </c>
       <c r="H7">
-        <v>1.104188</v>
+        <v>2.360409</v>
       </c>
       <c r="I7">
-        <v>0.851120837039652</v>
+        <v>0.878739782852379</v>
       </c>
       <c r="J7">
-        <v>0.7921532785185812</v>
+        <v>0.828507295567903</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.153566</v>
+        <v>0.363908</v>
       </c>
       <c r="N7">
-        <v>0.4606979999999999</v>
+        <v>1.091724</v>
       </c>
       <c r="O7">
-        <v>0.01082049501783563</v>
+        <v>0.01118972054940699</v>
       </c>
       <c r="P7">
-        <v>0.01593671391696275</v>
+        <v>0.01663265480083782</v>
       </c>
       <c r="Q7">
-        <v>0.08478286720399997</v>
+        <v>0.4294858591859999</v>
       </c>
       <c r="R7">
-        <v>0.5086972032239998</v>
+        <v>2.576915155116</v>
       </c>
       <c r="S7">
-        <v>0.009209548776763648</v>
+        <v>0.009832852605764704</v>
       </c>
       <c r="T7">
-        <v>0.01262432017813474</v>
+        <v>0.01378027584715664</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +903,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5520939999999999</v>
+        <v>1.1802045</v>
       </c>
       <c r="H8">
-        <v>1.104188</v>
+        <v>2.360409</v>
       </c>
       <c r="I8">
-        <v>0.851120837039652</v>
+        <v>0.878739782852379</v>
       </c>
       <c r="J8">
-        <v>0.7921532785185812</v>
+        <v>0.828507295567903</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>13.6684585</v>
+        <v>0.153566</v>
       </c>
       <c r="N8">
-        <v>27.336917</v>
+        <v>0.460698</v>
       </c>
       <c r="O8">
-        <v>0.9631004721145509</v>
+        <v>0.004721964413781051</v>
       </c>
       <c r="P8">
-        <v>0.9456533902920258</v>
+        <v>0.007018835164781924</v>
       </c>
       <c r="Q8">
-        <v>7.546273927098998</v>
+        <v>0.181239284247</v>
       </c>
       <c r="R8">
-        <v>30.18509570839599</v>
+        <v>1.087435705482</v>
       </c>
       <c r="S8">
-        <v>0.8197148799794206</v>
+        <v>0.004149377983602621</v>
       </c>
       <c r="T8">
-        <v>0.7491024334620396</v>
+        <v>0.005815156140410369</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5520939999999999</v>
+        <v>1.1802045</v>
       </c>
       <c r="H9">
-        <v>1.104188</v>
+        <v>2.360409</v>
       </c>
       <c r="I9">
-        <v>0.851120837039652</v>
+        <v>0.878739782852379</v>
       </c>
       <c r="J9">
-        <v>0.7921532785185812</v>
+        <v>0.828507295567903</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +992,152 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03596566666666667</v>
+        <v>0.06252866666666666</v>
       </c>
       <c r="N9">
-        <v>0.107897</v>
+        <v>0.187586</v>
       </c>
       <c r="O9">
-        <v>0.002534195830976933</v>
+        <v>0.001922679101110775</v>
       </c>
       <c r="P9">
-        <v>0.003732431270590561</v>
+        <v>0.002857913889838424</v>
       </c>
       <c r="Q9">
-        <v>0.01985642877266666</v>
+        <v>0.07379661377899999</v>
       </c>
       <c r="R9">
-        <v>0.119138572636</v>
+        <v>0.442779682674</v>
       </c>
       <c r="S9">
-        <v>0.002156906876883484</v>
+        <v>0.00168953461580489</v>
       </c>
       <c r="T9">
-        <v>0.002956657667843587</v>
+        <v>0.002367802507835979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.1802045</v>
+      </c>
+      <c r="H10">
+        <v>2.360409</v>
+      </c>
+      <c r="I10">
+        <v>0.878739782852379</v>
+      </c>
+      <c r="J10">
+        <v>0.828507295567903</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>31.927516</v>
+      </c>
+      <c r="N10">
+        <v>63.85503199999999</v>
+      </c>
+      <c r="O10">
+        <v>0.9817315966582778</v>
+      </c>
+      <c r="P10">
+        <v>0.9728454303033116</v>
+      </c>
+      <c r="Q10">
+        <v>37.68099805702199</v>
+      </c>
+      <c r="R10">
+        <v>150.723992228088</v>
+      </c>
+      <c r="S10">
+        <v>0.8626866100668144</v>
+      </c>
+      <c r="T10">
+        <v>0.8060095364661896</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.1802045</v>
+      </c>
+      <c r="H11">
+        <v>2.360409</v>
+      </c>
+      <c r="I11">
+        <v>0.878739782852379</v>
+      </c>
+      <c r="J11">
+        <v>0.828507295567903</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.01411566666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.042347</v>
+      </c>
+      <c r="O11">
+        <v>0.0004340392774233579</v>
+      </c>
+      <c r="P11">
+        <v>0.0006451658412300904</v>
+      </c>
+      <c r="Q11">
+        <v>0.0166593733205</v>
+      </c>
+      <c r="R11">
+        <v>0.099956239923</v>
+      </c>
+      <c r="S11">
+        <v>0.000381407580392405</v>
+      </c>
+      <c r="T11">
+        <v>0.0005345246063103333</v>
       </c>
     </row>
   </sheetData>
